--- a/_site/Data/TrustedMessenger.xlsx
+++ b/_site/Data/TrustedMessenger.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgxDerzmBKIL/CxRtDWiOrXNgqa5Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgmNxtkQsSg2Kllva3X4jk3rWLo7g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -113,7 +113,7 @@
     <t>Please say more about what makes these places in your community your favorite and least favorite.</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
 </sst>
 </file>
